--- a/Question_Set2/Programming skills/Clean Code.xlsx
+++ b/Question_Set2/Programming skills/Clean Code.xlsx
@@ -16,23 +16,69 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Your cloud hosting charges you a lot of money for network traffic. You troubleshoot the issue and notice that very large Javascript files take up most of the bandwidth.What strategies should you consider for using less bandwidth?', 'ques_type': 15, 'options': ['Strip comments and excess whitespace before deploying.', 'Deploy the package with npm run deploy.', 'Serve the files over Apache instead of Nginx.', 'Compress the file in transit with gzip.', 'Scan the code with a linter.', 'Implement type protections with the Typescript compiler.'], 'score': ['Strip comments and excess whitespace before deploying.', 'Compress the file in transit with gzip.']}, {'title': 'You are reviewing a colleague’s code and notice that they have written a loop structured as shown below.How should you rewrite this more concisely while keeping the same functionality?# wait for network to come online\nwhile True:\n    if network.is_online():\n        break\n    sleep(1) # wait one second, then try again.', 'ques_type': 2, 'options': ['if network.is_online(): sleep(1)', 'while network.is_online(): sleep(1)', 'while not network.is_online(): sleep(1)', 'if not network.is_online(): sleep(1)'], 'score': 'while not network.is_online(): sleep(1)'}, {'title': 'You are collaborating on a codebase that uses quite a few functions that are copied in a few other files, so you decide to refactor them into a library. The lead dev wants you to provide your rationale for this refactorization in the pull request.What benefits should you point out for moving the code into a library?', 'ques_type': 15, 'options': ['Increase privacy.', 'Reduce compiler errors.', 'Improve runtime speed.', 'Create a namespace for library functions.', 'Navigate codebase more easily.'], 'score': ['Create a namespace for library functions.', 'Navigate codebase more easily.']}, {'title': 'You are working on a graphical interface for a file explorer. The file explorer’s graphical window is managed by two classes: one to manage changes in the window, and another to deal with input events. During review, your manager argues that this design violates the SRP (single responsibility principle).How can you refactor the code to respect the SRP?', 'ques_type': 2, 'options': ['Move each class to its own project file.', 'Create an additional class to parse events and pass them to the window.', 'Deconstruct the class into simple functions.', 'Create a single class to manage the file explorer.'], 'score': 'Create a single class to manage the file explorer.'}]</t>
+    <t>questions = [
+    {
+        "title": "Your cloud hosting charges you a lot of money for network traffic. You troubleshoot the issue and notice that very large Javascript files take up most of the bandwidth.What strategies should you consider for using less bandwidth?",
+        "ques_type": 15,
+        "options": [
+            "Strip comments and excess whitespace before deploying.",
+            "Deploy the package with npm run deploy.",
+            "Serve the files over Apache instead of Nginx.",
+            "Compress the file in transit with gzip.",
+            "Scan the code with a linter.",
+            "Implement type protections with the Typescript compiler."
+        ],
+        "score": [
+            "Strip comments and excess whitespace before deploying.",
+            "Compress the file in transit with gzip."
+        ]
+    },
+    {
+        "title": "You are reviewing a colleague\u2019s code and notice that they have written a loop structured as shown below.How should you rewrite this more concisely while keeping the same functionality?# wait for network to come online\nwhile True:\n    if network.is_online():\n        break\n    sleep(1) # wait one second, then try again.",
+        "ques_type": 2,
+        "options": [
+            "if network.is_online(): sleep(1)",
+            "while network.is_online(): sleep(1)",
+            "while not network.is_online(): sleep(1)",
+            "if not network.is_online(): sleep(1)"
+        ],
+        "score": "while not network.is_online(): sleep(1)"
+    },
+    {
+        "title": "You are collaborating on a codebase that uses quite a few functions that are copied in a few other files, so you decide to refactor them into a library. The lead dev wants you to provide your rationale for this refactorization in the pull request.What benefits should you point out for moving the code into a library?",
+        "ques_type": 15,
+        "options": [
+            "Increase privacy.",
+            "Reduce compiler errors.",
+            "Improve runtime speed.",
+            "Create a namespace for library functions.",
+            "Navigate codebase more easily."
+        ],
+        "score": [
+            "Create a namespace for library functions.",
+            "Navigate codebase more easily."
+        ]
+    },
+    {
+        "title": "You are working on a graphical interface for a file explorer. The file explorer\u2019s graphical window is managed by two classes: one to manage changes in the window, and another to deal with input events. During review, your manager argues that this design violates the SRP (single responsibility principle).How can you refactor the code to respect the SRP?",
+        "ques_type": 2,
+        "options": [
+            "Move each class to its own project file.",
+            "Create an additional class to parse events and pass them to the window.",
+            "Deconstruct the class into simple functions.",
+            "Create a single class to manage the file explorer."
+        ],
+        "score": "Create a single class to manage the file explorer."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +102,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +402,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
